--- a/reports/weekly_weather_report.xlsx
+++ b/reports/weekly_weather_report.xlsx
@@ -1395,7 +1395,7 @@
         <v>45999.54166666666</v>
       </c>
       <c r="B87" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>45999.58333333334</v>
       </c>
       <c r="B88" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>45999.70833333334</v>
       </c>
       <c r="B91" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>45999.79166666666</v>
       </c>
       <c r="B93" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1472,10 +1472,10 @@
         <v>45999.83333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1483,10 +1483,10 @@
         <v>45999.875</v>
       </c>
       <c r="B95" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1494,7 +1494,7 @@
         <v>45999.91666666666</v>
       </c>
       <c r="B96" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>46000</v>
       </c>
       <c r="B98" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>46000.04166666666</v>
       </c>
       <c r="B99" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>46000.125</v>
       </c>
       <c r="B101" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>46000.16666666666</v>
       </c>
       <c r="B102" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>46000.20833333334</v>
       </c>
       <c r="B103" t="n">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>46000.25</v>
       </c>
       <c r="B104" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>46000.29166666666</v>
       </c>
       <c r="B105" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>46000.33333333334</v>
       </c>
       <c r="B106" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>46000.375</v>
       </c>
       <c r="B107" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>46000.41666666666</v>
       </c>
       <c r="B108" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>46000.45833333334</v>
       </c>
       <c r="B109" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>46000.5</v>
       </c>
       <c r="B110" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>46000.54166666666</v>
       </c>
       <c r="B111" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>46000.66666666666</v>
       </c>
       <c r="B114" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>46000.70833333334</v>
       </c>
       <c r="B115" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>46000.75</v>
       </c>
       <c r="B116" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>46000.79166666666</v>
       </c>
       <c r="B117" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>46000.83333333334</v>
       </c>
       <c r="B118" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>46000.875</v>
       </c>
       <c r="B119" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>46000.91666666666</v>
       </c>
       <c r="B120" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>46000.95833333334</v>
       </c>
       <c r="B121" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>46001</v>
       </c>
       <c r="B122" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>46001.04166666666</v>
       </c>
       <c r="B123" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>46001.08333333334</v>
       </c>
       <c r="B124" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>46001.125</v>
       </c>
       <c r="B125" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>46001.16666666666</v>
       </c>
       <c r="B126" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>46001.20833333334</v>
       </c>
       <c r="B127" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>46001.25</v>
       </c>
       <c r="B128" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>46001.29166666666</v>
       </c>
       <c r="B129" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>46001.33333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>46001.375</v>
       </c>
       <c r="B131" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>46001.41666666666</v>
       </c>
       <c r="B132" t="n">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>46001.45833333334</v>
       </c>
       <c r="B133" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>46001.5</v>
       </c>
       <c r="B134" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>46001.54166666666</v>
       </c>
       <c r="B135" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>46001.58333333334</v>
       </c>
       <c r="B136" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2349,13 +2349,13 @@
         <v>3.3</v>
       </c>
       <c r="B2" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C2" t="n">
-        <v>9.74</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/reports/weekly_weather_report.xlsx
+++ b/reports/weekly_weather_report.xlsx
@@ -625,7 +625,7 @@
         <v>45996.625</v>
       </c>
       <c r="B17" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>45996.66666666666</v>
       </c>
       <c r="B18" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>45996.70833333334</v>
       </c>
       <c r="B19" t="n">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>45996.75</v>
       </c>
       <c r="B20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>45996.83333333334</v>
       </c>
       <c r="B22" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>45996.875</v>
       </c>
       <c r="B23" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>45996.91666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>45996.95833333334</v>
       </c>
       <c r="B25" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>45997.04166666666</v>
       </c>
       <c r="B27" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>45997.125</v>
       </c>
       <c r="B29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>45997.16666666666</v>
       </c>
       <c r="B30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>45997.20833333334</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>45997.25</v>
       </c>
       <c r="B32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>45997.29166666666</v>
       </c>
       <c r="B33" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>45997.375</v>
       </c>
       <c r="B35" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>45997.41666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>45997.45833333334</v>
       </c>
       <c r="B37" t="n">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>45997.5</v>
       </c>
       <c r="B38" t="n">
-        <v>10.6</v>
+        <v>10.2</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>45997.54166666666</v>
       </c>
       <c r="B39" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>45997.58333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>45997.625</v>
       </c>
       <c r="B41" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>45997.66666666666</v>
       </c>
       <c r="B42" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>45997.70833333334</v>
       </c>
       <c r="B43" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>45997.75</v>
       </c>
       <c r="B44" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>45997.79166666666</v>
       </c>
       <c r="B45" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>45997.83333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>45997.875</v>
       </c>
       <c r="B47" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>45997.91666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>45997.95833333334</v>
       </c>
       <c r="B49" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>45998</v>
       </c>
       <c r="B50" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>45998.04166666666</v>
       </c>
       <c r="B51" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>45998.08333333334</v>
       </c>
       <c r="B52" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>45998.125</v>
       </c>
       <c r="B53" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>45998.16666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>45998.20833333334</v>
       </c>
       <c r="B55" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>45998.25</v>
       </c>
       <c r="B56" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -2346,13 +2346,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B2" t="n">
         <v>15.8</v>
       </c>
       <c r="C2" t="n">
-        <v>9.710000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="D2" t="n">
         <v>0.3</v>
